--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Continued working on Map script, generating maps with fixed sizes implemented.</t>
+  </si>
+  <si>
+    <t>Created MapCreationDialog script, removed Tile script, tiles are now just game objects with a texture.</t>
+  </si>
+  <si>
+    <t>Started MapEditor script, users can toggle-lock all tile objects in the scene hierarchy so they cannot be edited (can still multi-select them)</t>
+  </si>
+  <si>
+    <t>Users can drag/drop textures from the asset browser into the MapEditor script.</t>
+  </si>
+  <si>
+    <t>Can drag textures from the MapEditor onto map tiles.</t>
   </si>
 </sst>
 </file>
@@ -101,21 +116,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,13 +444,15 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:O14"/>
+      <selection activeCell="D13" sqref="D13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
@@ -444,52 +470,59 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="1">
         <v>41555</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <v>3.5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="1">
+        <v>41556</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -503,67 +536,95 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="B5" s="1">
+        <v>41557</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="1">
+        <v>41559</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="B7" s="1">
+        <v>41560</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="B8" s="1">
+        <v>41561</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -578,7 +639,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -593,7 +654,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -608,7 +669,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -623,7 +684,7 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -638,7 +699,7 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -653,7 +714,7 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -668,7 +729,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -683,7 +744,7 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -698,7 +759,7 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -713,7 +774,7 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -728,16 +789,25 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f>SUM(C3:C19)</f>
-        <v>3.5</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
@@ -748,15 +818,6 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Can drag textures from the MapEditor onto map tiles.</t>
+  </si>
+  <si>
+    <t>Began reimplementing the mapEditor control into a custom inspector</t>
+  </si>
+  <si>
+    <t>Continued reimplementing the mapedtior as a custom inspector-- displays textures, painting tiles is implemented.</t>
   </si>
 </sst>
 </file>
@@ -124,9 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -140,6 +143,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,52 +450,52 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:O13"/>
+      <selection activeCell="D14" sqref="D14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
     <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -498,20 +504,20 @@
       <c r="C3" s="2">
         <v>3.5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -520,20 +526,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -542,20 +548,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -564,20 +570,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -586,20 +592,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -608,206 +614,211 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="B9" s="1">
+        <v>41562</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="1">
+        <v>41563</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
@@ -818,6 +829,15 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Continued reimplementing the mapedtior as a custom inspector-- displays textures, painting tiles is implemented.</t>
+  </si>
+  <si>
+    <t>Research spike into NavMesh (built-in unity pathing solution). Unusable for this project, cannot change tile pathing from scripts.</t>
+  </si>
+  <si>
+    <t>Finish reworking map inspector. Set up map inspector to be much more expansion-friendly (easy to expand)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:O14"/>
+      <selection activeCell="D13" sqref="D13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,34 +680,48 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="B11" s="1">
+        <v>41566</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="B12" s="1">
+        <v>41567</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
@@ -814,7 +834,7 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>31.5</v>
+        <v>43.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Finish reworking map inspector. Set up map inspector to be much more expansion-friendly (easy to expand)</t>
+  </si>
+  <si>
+    <t>Implemented Goal-Based path generation. Began coding an object to follow path.</t>
   </si>
 </sst>
 </file>
@@ -148,8 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -456,7 +459,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:O13"/>
+      <selection activeCell="D14" sqref="D14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,18 +471,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -532,20 +535,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -554,20 +557,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -576,20 +579,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -598,20 +601,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -620,20 +623,20 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -642,20 +645,20 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -664,20 +667,20 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -686,20 +689,20 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -708,24 +711,31 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="1">
+        <v>41568</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -740,93 +750,93 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
@@ -834,11 +844,20 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>43.5</v>
+        <v>48.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
@@ -849,15 +868,6 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Implemented Goal-Based path generation. Began coding an object to follow path.</t>
+  </si>
+  <si>
+    <t>Continued working on pathing. Finished a goal-based system, but it's too slow on larger maps (20x20+). Working on A* now, will try and combine</t>
   </si>
 </sst>
 </file>
@@ -151,8 +154,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -459,7 +462,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:O14"/>
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,22 +470,22 @@
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -535,20 +538,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -557,20 +560,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -579,20 +582,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -601,20 +604,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -623,20 +626,20 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -645,20 +648,20 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -667,20 +670,20 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -689,20 +692,20 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -711,20 +714,20 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -733,24 +736,31 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="1">
+        <v>41572</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -765,78 +775,78 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
@@ -844,20 +854,11 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>48.5</v>
+        <v>57.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
@@ -868,6 +869,15 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Continued working on pathing. Finished a goal-based system, but it's too slow on larger maps (20x20+). Working on A* now, will try and combine</t>
+  </si>
+  <si>
+    <t>A* pathing completely implemented. There are a few areas that could be profiled/fixed, but it's working.</t>
+  </si>
+  <si>
+    <t>A* Pathing partially implemented. Takes too long to generate paths, needs some optimizing.</t>
+  </si>
+  <si>
+    <t>A* pathing now dynamically regenerates the path when the map is changed.</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:O19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,49 +783,70 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="B15" s="1">
+        <v>41573</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="B16" s="1">
+        <v>41574</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="B17" s="1">
+        <v>41575</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -854,7 +884,7 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>57.5</v>
+        <v>80.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>A* pathing now dynamically regenerates the path when the map is changed.</t>
+  </si>
+  <si>
+    <t>Research spike into different possible event systems. Tested Unity's default SendMessage. Can't figure out cross-object communication, large overhead.</t>
+  </si>
+  <si>
+    <t>Implemented genericed messenger event system. Basic proof-of-concept behavior scripts, beginning of region script.</t>
+  </si>
+  <si>
+    <t>Implemented C# delegate/event based system, became too complex/unmaintainable for easy generation from the editor itself. Scrapped.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -163,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -468,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D20" sqref="D20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,18 +493,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -503,20 +513,20 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -525,20 +535,20 @@
       <c r="C3" s="2">
         <v>3.5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -547,20 +557,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -569,20 +579,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -591,20 +601,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -613,20 +623,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -635,20 +645,20 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -657,20 +667,20 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -679,20 +689,20 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -701,20 +711,20 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -723,20 +733,20 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -745,20 +755,20 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -767,20 +777,20 @@
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -789,20 +799,20 @@
       <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -811,20 +821,20 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -833,24 +843,31 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="1">
+        <v>41580</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -863,9 +880,16 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
+    <row r="19" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>41581</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -878,27 +902,102 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>41582</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
-        <f>SUM(C3:C19)</f>
-        <v>80.5</v>
+      <c r="C25" s="5">
+        <f>SUM(C3:C24)</f>
+        <v>96.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
+  <mergeCells count="24">
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="D13:O13"/>
     <mergeCell ref="D14:O14"/>
@@ -908,6 +1007,21 @@
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Implemented C# delegate/event based system, became too complex/unmaintainable for easy generation from the editor itself. Scrapped.</t>
+  </si>
+  <si>
+    <t>added 'GameEntity, gameUnit and gameStructure' classes. Began using the 'Teyke' namespace. Began work on tech-tree system, using a global static class that held dictionaries for all the units/structures in the game, as defined in prefabs. Ended up not working, because Unity doesn't allow you to serialize static data, so the lists of units/structures would not persist between sessions. No good way around this, will begin working on a new system.</t>
+  </si>
+  <si>
+    <t>Researched possible methods for storing the different unit types, landed on a static dictionary that everything can pull from when they need to upgrade/build a unit.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -173,10 +179,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O25"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:O20"/>
+      <selection activeCell="D25" sqref="D25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,18 +512,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -513,20 +532,20 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -535,20 +554,20 @@
       <c r="C3" s="2">
         <v>3.5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -557,20 +576,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -579,20 +598,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -601,20 +620,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -623,20 +642,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -645,20 +664,20 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -667,20 +686,20 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -689,20 +708,20 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -711,20 +730,20 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -733,20 +752,20 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -755,20 +774,20 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -777,20 +796,20 @@
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -799,20 +818,20 @@
       <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -821,20 +840,20 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -843,20 +862,20 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
@@ -865,20 +884,20 @@
       <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -887,20 +906,20 @@
       <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -909,95 +928,139 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>41588</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="2:15" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>41589</v>
+      </c>
+      <c r="C22" s="14">
+        <v>8</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
-        <f>SUM(C3:C24)</f>
-        <v>96.5</v>
+      <c r="C26" s="5">
+        <f>SUM(C3:C25)</f>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D21:O21"/>
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="D13:O13"/>
     <mergeCell ref="D14:O14"/>
@@ -1007,21 +1070,6 @@
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Timelog.xlsx
+++ b/Documentation/Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Researched possible methods for storing the different unit types, landed on a static dictionary that everything can pull from when they need to upgrade/build a unit.</t>
+  </si>
+  <si>
+    <t>Bunch of stuff, computer was having issues with Git/repo and I lost a lot of the documentation. Unit Editor window and units/structures were the big things</t>
+  </si>
+  <si>
+    <t>11/12-11/13</t>
+  </si>
+  <si>
+    <t>Began working on TD demo. Ended up refactoring pretty much every tool I had finished up to this point so that actually developing the game was possible/quick.</t>
+  </si>
+  <si>
+    <t>Finished implementing the most basic version of the TD demo. Most features of the unit/structure editor are also implemented. Selecting units at runtime is partially there (no multiselect yet)</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,22 +192,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O26"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:O25"/>
+      <selection activeCell="D23" sqref="D23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,18 +525,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -532,20 +545,20 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -554,20 +567,20 @@
       <c r="C3" s="2">
         <v>3.5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -576,20 +589,20 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -598,20 +611,20 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -620,20 +633,20 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -642,20 +655,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -664,20 +677,20 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -686,20 +699,20 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -708,20 +721,20 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -730,20 +743,20 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -752,20 +765,20 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -774,20 +787,20 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -796,20 +809,20 @@
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -818,20 +831,20 @@
       <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -840,20 +853,20 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -862,20 +875,20 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
@@ -884,20 +897,20 @@
       <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -906,20 +919,20 @@
       <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -928,20 +941,20 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -950,105 +963,183 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>41589</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>8</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="2:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="11">
+        <v>15</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="2:15" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>41603</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="2:15" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>41604</v>
+      </c>
+      <c r="C25" s="11">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:15" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
-        <f>SUM(C3:C25)</f>
-        <v>107.5</v>
+      <c r="C29" s="5">
+        <f>SUM(C3:C28)</f>
+        <v>140.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D28:O28"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="D9:O9"/>
@@ -1058,18 +1149,9 @@
     <mergeCell ref="D19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:O27"/>
     <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
